--- a/amc_resources/strength_units_reference.xlsx
+++ b/amc_resources/strength_units_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xosegi\Desktop\Jodata\Jodata\MAAP-Data-Analysis\MAAP-Data-Analysis\amc_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE860394-2F22-49E2-9948-EE6D7BF187F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6977C0-C054-4EC0-B380-41A24507C6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20115" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>strength_unit_in_dataset</t>
   </si>
@@ -28,24 +28,12 @@
     <t>standardized_units</t>
   </si>
   <si>
-    <t>MG (Milli Gram)</t>
-  </si>
-  <si>
     <t>milligram</t>
   </si>
   <si>
-    <t>G (Gram)</t>
-  </si>
-  <si>
     <t>gram</t>
   </si>
   <si>
-    <t>G(Gram)</t>
-  </si>
-  <si>
-    <t>UD (Unit Dose)</t>
-  </si>
-  <si>
     <t>unit dose</t>
   </si>
   <si>
@@ -58,13 +46,34 @@
     <t>millions of international units</t>
   </si>
   <si>
-    <t>MU (Millions of International Units)</t>
-  </si>
-  <si>
-    <t>mg (Milli Gram)</t>
-  </si>
-  <si>
     <t>ml</t>
+  </si>
+  <si>
+    <t>mg (milli gram)</t>
+  </si>
+  <si>
+    <t>g (gram)</t>
+  </si>
+  <si>
+    <t>g(gram)</t>
+  </si>
+  <si>
+    <t>ud (unit dose)</t>
+  </si>
+  <si>
+    <t>mu (millions of international units)</t>
+  </si>
+  <si>
+    <t>international units</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>iu</t>
   </si>
 </sst>
 </file>
@@ -417,13 +426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -435,74 +448,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
